--- a/500all/speech_level/speeches_CHRG-114hhrg22564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Babin. The Subcommittee on Space will come to order.    Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time, and welcome to today's hearing titled ``Are We Losing the Space Race to China?''    I now recognize myself for five minutes for an opening statement.    After the Columbia accident, President George W. Bush sought to revitalize our nation's space program by challenging NASA to return to the Moon and then chart a course to Mars. Steady advances were made towards those goals with strong Congressional support for the Constellation program.    NASA made solid progress towards the development of the Ares I and Ares V vehicles. The Commercial Cargo program was initiated and the International Space Station neared completion.    All of that success came to a screeching halt when President Obama was sworn in. His fiscal year 2010 budget request slashed well over a billion dollars from the exploration budget.    He then tasked a blue ribbon commission to evaluate NASA's current plans. The panel found that the original plan was not executable, something that should have come as no surprise given the Obama Administration's budget cut. President Obama cancelled Constellation in its next budget request, redirected even more money to Earth Science to support its radical political agenda, and then guaranteed dependence on Russia for access to space for an extended period of time, which is still ongoing.    So what does this have to do with China? Well, this vacuum of leadership has led not only to extended dependence on Russia for access to space, but also facilitated the ascendance of China as a leading spacefaring nation. China has capitalized on this Administration's weakness by offering partnerships with other nations on missions, like a return to the Moon, which the United States chose to walk away from.    Rather than charting a bold course that inspires the international community to engage with us, the Obama Administration has alienated historic allies and potential partners alike. Only because of Congress is NASA building deep space exploration capabilities.    Unfortunately, the administration refuses to let NASA show any detailed plans for a Journey to Mars beyond a PowerPoint chart. China, on the other hand, has demonstrated a willingness to answer calls for collaboration with open arms. This has clearly strengthened their soft power and international standing.    China's near-term plans for space exploration continue their nation's philosophy of steady and measured progress, but their long-term goals are very ambitious. They have already placed astronauts in orbit five times, launched a space station, and placed a rover on the Moon. They have announced plans for a larger space station, a first-of-a-kind mission to the far side of the Moon, and potentially a manned mission to the Moon in the 2030s.    The Administration's abdication of leadership in space exploration has significant consequences. If we do not lead, someone else will. Leadership in space means security, technological prowess, and innovation. Our future prosperity depends on our leadership in space. If we do not lead, we will not set the terms and condition for those who follow.    When the United States explores and embarks on adventures of discovery, we take with us our ideologies and our principles. I, for one, want to ensure that space becomes a domain of freedom and liberty, not autocracy and oppression. If we do not lead, we will weaken our partnerships. I want countries to embark with us into the cosmos, rather than team with China as a last resort.    The Obama Administration has already told the Europeans that they are not interested in their Moon Village proposal. They've tried to walk away from their commitments to the Germans on SOFIA and actually abandoned ExoMars. International partners have memories. They also have options.    China is building a resume of accomplishments that positions them as a viable alternative. Given their recent provocative actions in the South China Sea, and the longstanding oppression of their own people, we should all be wary of perpetuating conditions that push other nations to partner with China.    Furthermore, we should ensure that any U.S. cooperation with China in space is mutually beneficial, appreciates the risk of technology exploitation, and fits into a larger strategic perspective that recognizes Chinese provocation.    Aside from recent tensions in the South China Sea, China also threatens our nation's cyber security. Couple that with their irresponsible antisatellite tests, one is hard-pressed to find a reason to reward their behavior with increased cooperation. We may not be in a space race with China. We may not even be competing with China in space, but the strategic choices we make clearly impact China's space capabilities, something that we should all pay attention to given that China's civil space activities are inseparable from their military.    I look forward to our witnesses' testimony today, and I thank them for appearing.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Good morning, and welcome to our distinguished witnesses today. I want to thank Chairman Babin for calling this hearing.    You know, on October 4, 1957, 59 years ago next week, the Soviet Union stunned the world when it launched Sputnik I into outer space. That launch, marking the first time a manmade satellite was placed into Earth orbit, caught Americans by surprise and indeed sparked fears that the Soviet Union might also be capable of sending missiles with nuclear weapons from Russia to the United States.    Not long after, Congress passed legislation establishing the National Aeronautics and Space Administration (NASA). The agency's budding space program became important in America's efforts to demonstrate U.S. preeminence and technological prowess over the Soviet Union.    To that end, President John F. Kennedy stood before Congress on May 25, 1961 proposing that ``this nation should commit itself to achieving the goal before this decade is out of landing a man on the Moon and returning him safely to the Earth.''    Following a series of interim achievements that demonstrated NASA's ability to dock and perform extravehicular activities in space, the space race ended with the successful July 20, 1969, Apollo 11 landing of the first humans on the Moon. How different would today's world be if NASA had not responded to President Kennedy's challenge?    And now, almost 50 years since that historic event, some are asking if we are again in a space race, but this time with China. Two weeks ago, China successfully placed in orbit its Tiangong-2 experimental orbiting space lab, and that accomplishment comes on the heels of China's landing a robotic rover on the Moon, with plans announced to do the same on Mars.    So should we be concerned that China may be closing the gap in spaceflight capabilities? Well, today's panel is well qualified to address this question. In particular, I look forward to hearing about China's pace of progress in exploring space and how our track record fares in comparison.    I'd also like to know if the recent success of China's space program is due to its ability to stay on course. In addition, I'd like to get the witnesses' views on what they believe the goals and objectives of the Chinese space program are and what impacts other domestic priorities have on the conduct of their space activities. So I look forward to hearing the panel's views on whether the U.S. should seek greater cooperation with other space-faring nations, including China, and what challenges we face if we choose to do so.    And just in closing, and in reference to the Chairman's statement, you know, I think that there's a lot of blame that can be passed along Pennsylvania Avenue from one end to the next for the uncertainty, for the contrary priorities and confusing priorities across Republican and Democratic Presidents and Members of Congress, and in my very short eight years on this Subcommittee and on this Committee, I've witnessed that conflict in priorities, and I think that as Democrats and Republicans here in the House and the Senate that we would do our nation well and our nation's space program well for the future to make sure that we set down priorities that put us all on the same page when it comes to our priorities for space exploration, engage our international partners, and commit the resources across Presidents, Republicans and Democrats that it's going to take to get the job done.    And so I look forward to hearing from our panel today about those and other priorities, and with that, I yield the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman, and thanks to our witnesses for being here today as well.    Just this month, China launched its second experimental space station. While it's just a single module and is smaller than the International Space Station, it signifies continued Chinese progress and persistence.    The Soviets flew their first large, modular space station, Mir, 3-1/2 decades after the first cosmonaut went to space. China plans to have their own slightly smaller equivalent to the Mir space station in operation by the mid-2020s. This is roughly two decades after China launched its first astronaut into orbit.    Meanwhile, the Obama Administration's cuts to exploration and disruption of exploration planning has eliminated our opportunities to return to the Moon, and the Administration has no real plan for landing people on Mars. China continues to make progress. We cannot resign ourselves to the remembrance of past achievements. It is time for the United States to reassert its leadership.    For over 50 years, the United States has been committed to the peaceful use and exploration of outer space. Our philosophical principles of freedom, the rule of law, and transparency are evident in the actions we take. The United States shares scientific data and findings, promotes international cooperation, and maintains international peace and security in outer space. The world has benefited from U.S. space leadership.    The success of China's space program will be different. China does not hold the same values of our society. Unlike the United States, China does not have distinct military and civilian space programs. The Chinese military is functionally in charge of all space activities, with the Chinese National Space Agency responsible for international affairs and intergovernmental agreements. China already has demonstrated a strong disregard for interests of other countries in outer space through its antisatellite tests. Here on Earth, illegal incursions into the South China Sea represent a blatant disregard for the international rule of law. Will their disregard of international law continue to extend into outer space?    When China launched its first person into space in 2003, it caught the world's attention. Over the years, our focus has waned and now China's accomplishments in space have become commonplace. We cannot ignore Chinese achievements and become complacent.    Just yesterday, the New York Times featured a large article on the largest single dish radio telescope, which is being built in China. China is making steady progress in all fields of exploration, including astronomy.    If the United States fails to reassert its leadership, China's rise may undermine U.S. plans to transfer low-Earth orbit habitation and human spaceflight from a governmental activity to a sustainable economic activity undertaken by the private sector. China stands to fill another void left by this Administration's disinterest in maintaining leadership in exploration.    By abandoning plans to return to the Moon, the administration invited the rise of China as a leader in space. By reallocating funding from exploration to Earth science, the administration has put our leadership in space exploration at risk. Our allies stand ready to partner in an ambitious exploration program. Unfortunately, the current administration won't allow NASA to propose one.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -88,36 +79,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Shea</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shea. Well, thank you, Chairman Babin, Ranking Member Edwards, Chairman Smith, and the members of the Subcommittee for the opportunity to testify before you today.    I have to note these are my own personal views and not necessarily the judgments of the U.S.-China Commission though I draw heavily from the Commission's work.    Examining China's space program has never been more crucial. Over the next six years, China is poised to take major steps that will draw significant attention to its efforts in space and potentially set the stage for a larger leadership role.    Specifically, China plans to collect soil samples from the Moon and return them to Earth in 2017, send an unmanned spacecraft to land on the Moon's dark side before 2020, send a Rover to Mars in 2020, and complete a space station in 2022.    In this testimony, I want to briefly address three main points: the key characteristics of China's space program, the contributions it provides in economical, political and diplomatic terms, and the implications it presents for future U.S. leadership in space. The military aspects of China's space program are covered more fully in the Commission's report of last year.    China's climb to its current status is one of the world's top space powers as the result of decades of leadership attention and steady investment. It has also involved a significant effort to buy or otherwise obtain technologies from foreign sources, especially the United States. In particular, China's large-scale state-sponsored theft of intellectual property through cyber espionage has no doubt helped fill knowledge gaps in its space R&amp;D.    China's space initiatives have progressed as a much slower, more deliberate and more methodical pace than those of the United States. For example, the United States achieved manned spaceflight for the first time in 1961 and the Moon landing in 1969, whereas China conducted its first manned spaceflight in 2003 and may not plan to land on the Moon until the 2030s, as revealed just this year. However, China is also pursuing multiple large-scale efforts at the same time rather than the more sequential approach taken by the United States, making it difficult to compare the two directly.    As pointed out by Chairman Smith, China does not have distinctly separate military and civilian space programs as the United States does. Rather, China's military controls the majority of the country's space assets and operations and state-owned defense conglomerates are the key actors in the commercial space sector. Thus, even apparently civilian projects such as space exploration can directly support the development of PLA, space, counter-space, and conventional capabilities. Beijing also provides little transparency regarding its intentions in space, for example, does not release detailed budget information on its space activities.    China's space program has furthered its leaders strategic ambitions. China's advancements in space, specifically its plans for a space station, lunar exploration, and Mars exploration provide domestic legitimacy and international prestige.    China's global commercial efforts in areas such as space launch services, satellite exports and satellite application technologies provide revenues and are expected by policymakers to spark spin-off developments in key economic sectors. Both space exploration and commercial activities open the door to China's participation in key international and bilateral initiatives, which I list in my written testimony.    China has sought to work with advanced space powers where possible to improve its capabilities, most notably the European Space Agency. China has seen its greatest success in marking commercial space services to developing countries, which are less likely to demand advanced technologies subject to U.S. ITAR restrictions.    China's space program has economic implications for the United States in the areas of commercial satellite and spaced launch services, downstream satellite navigation industries, and the potential for European countries and their industries to pursue non-U.S. technologies in order to reach the Chinese market. The full deployment of China's BeiDou satellite navigation system plans to provide global service by 2020, and the introduction of policies to promote its adoption in downstream industries may affect U.S. firms and these industries in the future.    On the political side, China's activities have implications for U.S. leadership and international cooperation efforts in space. If the United States has a Mars program but no space station and no lunar program in the near future while China has all three, China will be able to dictate participation in manned spaceflight as well as in scientific projects involving its space station. China has already signed agreements with the U.N. Office for Outer Space Affairs and the Russian and European space agencies regarding space station cooperation.    Although the United States is prepared to maintain its leadership in the space domain, China's highly controlled, methodical and comprehensive approach will open up opportunities for Beijing in the near term.    Despite the fact that China's accomplishments and investments in space have been far outpaced by our own, it will likely appear over the next six years that China is reaching major milestones and gaining ground. Meanwhile, the United States will be focused on longer-term exploration projects and observers will be well aware of the planned deorbiting of the International Space Station in 2024. This underscores how important it is for the United States to see through its long-term space exploration projects so this apparent disparity does not continue.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Shea.    I now recognize Mr. Stokes for five minutes to present his testimony. Mr. Stokes.</t>
   </si>
   <si>
-    <t>Stokes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stokes. Thank you. Mr. Chairman, Members of the Subcommittee. It's an honor and privilege to be able to have this opportunity to come and present before you today.    I'd like to make three points. The testimony should be able to speak for itself, and I can provide more details in the question-and-answer session. But I'd like to make three points to sort of emphasize various aspects of developments in China's space capabilities.    Number one, it's important to draw upon and augment what Mr. Shea mentioned about the difficulty between distinguishing military capabilities and civilian capabilities in China's space program, and this is part of a conscious policy referred to these days as military-civilian fusion--MCF for short. There is a long history behind military-civilian fusion dating back perhaps to the 1980s. Dong Zhou Ping, he had a 16-character slogan in which military programs or military projects or civilian projects and investments were intended to support each other with the military taking priority. The term previously was referred to in English as integration so the military integration, not military-civilian fusion, presumably to imply a greater degree of cooperation between the two sectors.    It is difficult to distinguish military and civilian programs but one can at least make an attempt to identify an end user or sponsor, in other words, who is actually managing the program. There are some aspects of China's space program that are managed by civilian organizations, and then there are some military end users. This was not always the case. When China embarked upon their space program in the beginning, there was very much of even more of a blurring. Over the last decade or 10, 15 years, there's been an increasing effort with PLA developing dedicated military systems, particularly, for example, remote sensing programs, and there also of course are other organizations, civilian organizations, that have their own systems, say, for example, there's an ocean organization under the state council that's important. But, you know, part of this has to do with both spin-on and spin-off capabilities in space.    The second point I'd like to make is related to technological progresses being made, particularly in the research, development and acquisition system. This is probably where China has made the most significant achievements, not necessarily in the technology itself but in the ability to mobilize resources and to organize in a very progressive and reasonable fashion in terms of increasing capabilities.    As mentioned in the written testimony, there is sort of a stage-phase pathway to fielding systems ranging from preliminary research or basic research to concept development, to engineering, research and development, then all the way up to testing and then fielding. It's important to understand where each individual program is in the cycle to get a feel for how far along that they are. There's a pretty wide body of information that outlines the various programs all the way from satellites, remote sensing satellites, communication satellites, guidance navigation satellites, significant increasingly diverse set of launch vehicles that are being fielded to include starting last year a solid-fuel launch vehicle, one of their first to be deployed and operationalized. There's significant investments in the counter-space systems to include the ability to be able to track and surveil space assets, and of course, the manned space program. So there are significant capabilities that are being developed in this field.    There are three goals, to put it simply, in my view. One of the key goals of course is political, political legitimacy. One has to remember that ultimately the People's Republic of China is a one-party system, that the Chinese Communist Party seeks legitimacy in various ways and which the space program is certainly one of these. There are military goals, and again, there's a wide body of literature that outlines these goals and capabilities. And then there are economic goals as well.    And then finally, directly addressing the issue of the Space Race. It's difficult to define exactly what the Space Race is, and it's not even clear if we're even competing or we even view space as an area of competition with the People's Republic of China. And there may be different playing fields. For example, the political playing field, I think, is significant. But regardless from a technology perspective, Beijing and authorities in Beijing are closing the technology gap. It's my view that the United States technologically is likely to maintain advantage, bearing in mind that I'm not an expert on U.S. space systems, given the United States makes proper investments in our space capabilities.    In terms of future and goals in terms of what the United States should do in order to understand this better, in terms of defining what the competition would be, there's technological aspects. There's the ability to be able to apply capabilities that are being deployed, and then some comparison of the ability to mobilize resources in terms of personnel, budgets, and then organization.    And with that, I will save the rest of my comments for the question-and-answer session.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Stokes.    Now I recognize Mr. Cheng for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Cheng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cheng. Chairman Babin, Ranking Member Edwards, Chairman Smith, distinguished Members of the Committee, my name is Dean Cheng. I'm the Senior Research Fellow for Chinese Political and Security Affairs at the Heritage Foundation but I'd like to emphasize that my comments today are my own.    Directly to the point of whether or not there is a space race underway between the United States and China, I would like to suggest that there is not a space race per se but rather that there is a race between the United States and China on multiple different aspects and fronts, political, diplomatic, security, all of which have a space component, and that is the Chinese perspective because the Chinese view space as being an essential part of the larger effort to raise China's comprehensive national power.    Comprehensive national power is how the Chinese basically look at various countries including themselves, how they rank with each other how capable they are. It includes economic, diplomatic, political, cultural, science and technology, as well as military aspects, and from the Chinese perspective, space development contributes to every one of those elements of comprehensive national power.    With regards to the economy, space is seen as a pivotal technology. Because it is so dense, as the Chinese put it, in science and technology, in high technology, because it touches on such aspects as advanced materials, telecommunications, computing, and above all, systems engineering and systems integration. The Chinese see an advancing space capability that's almost like a locomotive that will pull along other parts of the Chinese economy. The space workforce in particular is seen as building expertise in key areas including systems integration, and we have seen key leaders in China's space industry transfer to areas such as the Commercial Aircraft Corporation, China's effort to build their own wide-bodied aircraft in the belief that their experience in the space sector can be translated into building Chinese challengers to Boeing and Airbus.    We also see this in terms of the Chinese folks on indigenous innovation. The perception is that China's ability to field a full-blown space program will spark innovation in other areas, other key subtechnologies.    In addition, of course, we also see the Chinese using space in terms of their political efforts, and this is both domestic and foreign relations. Space is a source of prestige, and prestige in this case supports both the legitimacy of the Chinese Communist Party but also the prestige of the People's Republic of China. For example, space achievements are often described as CCP achievements, and so China's space program, which grew out of the so-called two bombs, one satellite program, not only is a reflection of the relationship the Chinese view space with regards to key strategic weapons but also as a means again of promoting innovation. We also see the expectation that economic development through space will basically again help spark a revival of the Chinese economy, which right now seems to be slowing down.    With regards to foreign relations, again, we see space being used as a key diplomatic tool in both the bilateral and the multilateral aspects, bilaterally, in terms of sales of satellites to such states as Venezuela, Bolivia, Bangladesh, Pakistan, all of whom are key sources of raw materials that help power the Chinese economy, but also at the multilateral level, again such as the Asia-Pacific Space Cooperation Organization, which brings in Thailand, Malaysia, Mongolia. These are not major space powers per se, but they are key neighbors of the People's Republic of China, and they are using APSCO as a diplomatic tool.    Of course, it is implicit that the ability to maintain space-based surveillance and to put payloads into orbit obviously affects Taiwan, obviously affects Japan. I would also suggest to the Committee that when, not if, the Chinese are able to go to the Moon, first with a robotic lander on the far side, to think about how you will communicate with something on the far side of the Moon. In order to do that, it will require the establishment of a lunar satellite, satellites that will orbit the Moon. The implications for military and security aspects are self-evident. But also, the day that the Chinese land a human being on the Moon will be an enormous impact on the United States because how often have we heard we've gone to the Moon, why haven't we, you know, solved the common cold, why haven't we solved traffic problems in downtown DC. The reality is that the day the Chinese are able to do the same thing is the day that American uniqueness will be openly challenged and Chinese prestige will be put on the same level as that of the United States.    Thank you very much, members of the Committee, for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you very much, Mr. Cheng.    I now recognize Dr. Lewis for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Lewis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lewis. Mr. Chairman, I'd like to thank the Committee for the opportunity to testify on whether we're in a space race with China, but it's also useful to ask if we have the right strategy for space exploration in what's become a very different international environment.    A comparison of the U.S. and Chinese space programs suggests each reflects different goals rather than being a race. China's goals are political. Ours are scientific. There is a degree of parallelism between the U.S. and Chinese efforts but with the exception of human space exploration, the two programs are not really comparable.    In most areas, the United States remains unmatched in its space capabilities. Our unmanned space exploration program has no equal in its successes, but when we talk about a space race, we're talking about human spaceflight, the area of activity where the United States is weakest. The classic space race between the United States and the Soviets centered on human spaceflight and landing on the Moon. Each side tried to surpass the exploits of the other. I think it's now safe to say that the United States does not consider itself in a space race with China. The United States is focused on the manned exploration of Mars, and from a scientific perspective, going to Mars makes sense, but it doesn't make sense from a strategic perspective.    China does not talk about space races but there is an unavoidable comparison and competition with the United States. China's focus in space exploration is on human spaceflight and its leaders have a great interest in landing on the Moon.    In the United States and Soviet space race, the objectives are prestige and global influence. Having won the race, the United States largely lost interest in space. In contrast, China uses its space programs to gain political advantage. Its human space programs serve important domestic and foreign policy purposes.    Human spaceflight was a central part of the Cold War contest. The assumption was that the system that won the space race was superior. The competition between the U.S. and Chinese systems is not as clear-cut, but the rest of the world thinks we're in a competition with China and that space exploration is a part of this.    We should be clear that the Chinese space program largely duplicates U.S. and Soviet exploits from the 1970s and 1980s. What we do not want, however, is a tortoise-and-hare scenario where a slow-moving China passes the United States. American performance in space is an important element in how China will decide between confrontation or cooperation. We do not want a situation where China's leaders think, as a PLA general said last year, that the United States has ``great capability, no will.''    The future of space exploration requires the United States to make difficult choices. These choices will determine the outcome of any space race with China. A strong case can be made that the United States would be best served by human spaceflight programs that focus on incremental and achievable goals. We're in a very difficult international situation, and our space programs need to adjust to this.    I thank the Committee, and look forward to your questions.</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    Today's hearing is entitled ``Are We Losing the Space Race to China?'' and if I were to try to summarize your collective testimony, as I understand it, you're saying that the United States is not losing the race to China but China is gaining ground.    Mr. Shea, would that be a fair summary of your remarks?</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. Thank you all so much for coming.    Mr. Shea, you--in your written and oral testimony, you talked about--let me quote--``Beijing has heavily emphasized both commercial launch services and satellite exports as the space industry has developed, and both activities provide China's space industry with revenues, opportunities to measure the quality of its products and services against international competitors, and industrial development synergies, et cetera.''    One of the things this Committee has done in a very bipartisan way is try to be champions for the development of the commercial space industry here in the United States. Does China represent a real threat to our commercial space industry or is the competition good for our commercial space industry?</t>
   </si>
   <si>
@@ -283,9 +256,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Well, thank you, Mr. Chairman, and thank you to all of our panelists. I'm glad to see there's so much agreement on our panel today. There's been a lot of talk about the Space Race. I want to be clear, we've put men on the Moon. We got two rovers currently operating on the surface of Mars. We have explored the furthest reaches of the solar system. The Space Race is over, and we won.    The question is now how are we utilizing space and how are our near-peer competitors utilizing space, and the question is, are we ceding leadership to the Chinese. China is building a new station, as has already been identified. It has a Moon rover, recently launched the world's quantum communications satellite, as we just talked about, which does have very specific military implications, and it's expanding its BeiDou PNT system. Taking into account that there is no distinction between China's peaceful and military space programs, and these developments become very alarming quickly. Given their notorious lack of transparency, we do not know their true intentions with a space station nor do we even know what they are currently doing on the Moon.    Quantum technology is virtually unhackable and would give the Chinese a distinct advantage over any current military communications that we have as a nation. Utilizing BeiDou gives the Chinese an outlet for PNT that is separate from our own GPS. As they are developing their own GPS-type constellation, they are also developing and undertaking direct ascent antisatellite missile capabilities such as the 2007 direct ascent test that destroyed a LEO satellite. They are advancing spoofing and dazzling technologies and carrying out pernicious state-sponsored cyber espionage including a hack of the National Weather Service, which compelled us to shut down ground stations for two days in this country, deteriorating forecasts and putting my constituents in danger, and that threatened also the safety of millions of Americans including the constituents of everybody on this panel.    It is clear that China views space as the ultimate high ground and they are rapidly making moves to establish themselves in a position of strength while also improving their ability to deny us the use of space. Given the threat from China, we cannot afford to have the DOD doing extraneous activities not within its mission. As a point of departure, we must give the responsibility for providing space situational awareness for commercial and foreign entities to a civil agency, namely FAA's Office of Commercial Space Transportation. The Department of Transportation and the DOD concurred and endorsed this proposal in a recent report ordered by Section 110 of the Commercial Space bill recently enacted in 2015. I urge all of my colleagues to read the Section 110 report.    Next, we have a chance to pass a NASA authorization this year. That bill should direct NASA to utilize the Moon on our journey to Mars. Mr. Chairman, I think that's a great idea that you said and I think we need to go forward with that. Our allies want to go there as does a wide swath of our domestic commercial space industry. If we do not, our allies will work with China. They're either going to come into our orbit or they're going into their orbit--no pun intended.    Further, the bill should include the formation of a plan for a post-ISS world. We cannot afford a gap in LEO platforms similar to our gap in human transportation that currently exists. Including these policies will go a long way toward ensuring that we do not leave a power and leadership vacuum for China to fill.    Unfortunately, NASA under this Administration seems more focused on forcing partnership with China than in maintaining our leadership. Former Chairman Frank Wolf was a leader on this, and our country is grateful for his work. He first codified restrictions on cooperation with China in space.    On top of their belligerent space activity, China is run by a brutal regime that imprisons dissidents and persecutes minorities. State-sponsored cyber-crimes have robbed our companies of billions of dollars of intellectual property, doing untold damage to our economy. When does it stop is the question?    Mr. Chairman, any NASA bill should permanently codify the restrictions on cooperation with China while also discouraging others from partnering with the Chinese. We must treat China's actions in space for the threat that they are and ensure that we stay ahead of them technologically while preventing any vacuums in leadership that they might exploit.    Mr. Cheng, my question is for you. Given that China considers space security equivalent to maritime security, as you've kind of already talked about, is it reasonable to expect that China will behave in space similar to how it has behaved in the South China Sea?</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much.    I'd like each member to comment on this. What are the implications that China might match or surpass the U.S. civilian space capabilities in the near future or the distant future? And if they do, what are the key areas, what are the implications of that possibility, and also comment, the risks and benefits associated with NASA collaborating with China in space activities? So let me start with Mr. Shea, but I'd like each panel member to comment on that.</t>
   </si>
   <si>
@@ -331,9 +298,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    You know, competition is part of life. I think that America has led in this endeavor for many, many years. But there's so much that is going on right now with the technological advances that are happening today. There are so many things that we can do.    Back in the early 1960s, we were trying to go to the Moon because I do believe it was part of the competition. We also had many programs that were going on in the early 1960s like maybe the X-20 Dinosaur program that would've been the first space shuttle, and we decided not to do that. We decided to go to the Moon, and which is the goal that everyone looks to today.    But the point is, is we always have an awful lot of things that are happening, and I think the Chinese are now discovering that maybe if they put their goals on some finite situations, they might be able to beat us at certain things so we broke the sound barrier first, we were on the Moon first. We did all of these things first, and they might be able to do some of these finite goals and we might be looking at a hundred different goals.    So is that what we're kind of looking at today that competitively, look, we want to be on Mars first, we want to do this first, or are we looking at the expanse of space exploration and achieving some of these goals for a much bigger product, a much bigger program?</t>
   </si>
   <si>
@@ -358,9 +322,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair, and gentlemen, thank you for your testimony today. I really do appreciate the panelists almost nodding as each of you is speaking because you all seem to be pretty much on the same page, and I think for the Members up here, very similar kind of view of this, and so I appreciate your testimony. I'm not often on the same page as the Heritage Foundation, I can tell you that, Mr. Cheng.    Mr. Bridenstine--so we agree, this panel on a lot of the space exploration components and this potential for a space race that we're not winning. We've been able to win in the past, and Mr. Bridenstine is pretty single-minded in talking about commercial space and the ability to expand that and the potential innovation that our private sector brings to, you know, exploring at least low-Earth orbit if not farther. There's a thing I'm pretty single-minded about, and Mr. Knight will start laughing at me, but 2033, okay, so we've had testimony by NASA engineers and other experts that 2033 orbits of Mars and Earth are in pretty good alignment to save a lot of space travel time, and that 17 years helps us put the building blocks in place to get to Mars, get our astronauts to Mars, so human spaceflight, Dr. Lewis, which is what you've been talking about, and one of those building blocks certainly could be going back to the Moon. Now, I'm not the engineer, I'm not the scientist, I don't know the best way to do it, but I do know as a Member of Congress, we need to have long-term mission that we as Members of Congress stand behind from Administration to Administration.    So Mr. Cheng, to your point, we've seen different Administrations change how we looked at our space program. So I think we do have a potential for a mission that is long-term in nature that will continue to add to our expertise and our leadership in space.    Here's my question. We do--we've had testimony by prior panels that one of the last places where we've had some decent diplomatic dialog between ourselves and the Russians has been with respect to our scientists and our space programs, continue to use their rockets to help us get to the Space Station. Is there the potential for us to have that kind of dialog with the Chinese scientists? Is it--you know, you've all used words like ``wary'' and ``skeptical.'' You've used ``cooperation'' and ``competition,'' ``hostile'' and ``pragmatic.'' Is there a way for us to work with their scientists to really start broadening cooperation, if you will? And I'll open it to anybody on the panel if you feel like answering.</t>
   </si>
   <si>
@@ -377,9 +338,6 @@
   </si>
   <si>
     <t>412675</t>
-  </si>
-  <si>
-    <t>Warren Davidson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davidson. Thank you, Mr. Chairman.    Mr. Cheng, in your comments you mentioned a Chinese program called One Satellite, Two Bombs. What does that mean and what does it stem from?</t>
@@ -832,11 +790,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -858,11 +814,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -882,13 +836,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -910,11 +862,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -934,13 +884,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -962,11 +910,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -986,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1014,11 +958,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1038,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1066,11 +1006,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1090,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1118,11 +1054,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1142,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1170,11 +1102,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1194,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1222,11 +1150,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1246,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1274,11 +1198,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1298,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1326,11 +1246,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1350,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1376,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1402,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1428,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1454,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1480,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1506,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1532,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1558,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1586,11 +1486,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1610,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1636,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1662,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1688,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1714,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1740,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1766,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>52</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1792,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1818,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1844,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1870,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1896,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1922,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1948,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1974,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2000,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2026,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2054,11 +1918,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2078,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2104,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2130,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2156,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2182,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2208,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2234,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2260,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2286,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="H58" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2312,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2338,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2364,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2390,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2418,11 +2254,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2442,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2468,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2494,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2522,11 +2350,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2546,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2572,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2598,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2624,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2650,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2676,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2702,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2730,11 +2542,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2754,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2780,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2806,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2832,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2858,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2884,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2912,11 +2710,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2936,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
-      </c>
-      <c r="G83" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2962,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2988,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3014,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
-      </c>
-      <c r="G86" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3042,11 +2830,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3066,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
-      </c>
-      <c r="G88" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3092,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3118,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
-      </c>
-      <c r="G90" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3144,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3170,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3196,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3222,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3248,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3276,11 +3046,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3300,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3326,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3352,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3378,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>120</v>
-      </c>
-      <c r="G100" t="s">
-        <v>121</v>
-      </c>
-      <c r="H100" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3406,11 +3166,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3430,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3458,11 +3214,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3482,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
-        <v>114</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3510,11 +3262,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Babin. The Subcommittee on Space will come to order.    Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time, and welcome to today's hearing titled ``Are We Losing the Space Race to China?''    I now recognize myself for five minutes for an opening statement.    After the Columbia accident, President George W. Bush sought to revitalize our nation's space program by challenging NASA to return to the Moon and then chart a course to Mars. Steady advances were made towards those goals with strong Congressional support for the Constellation program.    NASA made solid progress towards the development of the Ares I and Ares V vehicles. The Commercial Cargo program was initiated and the International Space Station neared completion.    All of that success came to a screeching halt when President Obama was sworn in. His fiscal year 2010 budget request slashed well over a billion dollars from the exploration budget.    He then tasked a blue ribbon commission to evaluate NASA's current plans. The panel found that the original plan was not executable, something that should have come as no surprise given the Obama Administration's budget cut. President Obama cancelled Constellation in its next budget request, redirected even more money to Earth Science to support its radical political agenda, and then guaranteed dependence on Russia for access to space for an extended period of time, which is still ongoing.    So what does this have to do with China? Well, this vacuum of leadership has led not only to extended dependence on Russia for access to space, but also facilitated the ascendance of China as a leading spacefaring nation. China has capitalized on this Administration's weakness by offering partnerships with other nations on missions, like a return to the Moon, which the United States chose to walk away from.    Rather than charting a bold course that inspires the international community to engage with us, the Obama Administration has alienated historic allies and potential partners alike. Only because of Congress is NASA building deep space exploration capabilities.    Unfortunately, the administration refuses to let NASA show any detailed plans for a Journey to Mars beyond a PowerPoint chart. China, on the other hand, has demonstrated a willingness to answer calls for collaboration with open arms. This has clearly strengthened their soft power and international standing.    China's near-term plans for space exploration continue their nation's philosophy of steady and measured progress, but their long-term goals are very ambitious. They have already placed astronauts in orbit five times, launched a space station, and placed a rover on the Moon. They have announced plans for a larger space station, a first-of-a-kind mission to the far side of the Moon, and potentially a manned mission to the Moon in the 2030s.    The Administration's abdication of leadership in space exploration has significant consequences. If we do not lead, someone else will. Leadership in space means security, technological prowess, and innovation. Our future prosperity depends on our leadership in space. If we do not lead, we will not set the terms and condition for those who follow.    When the United States explores and embarks on adventures of discovery, we take with us our ideologies and our principles. I, for one, want to ensure that space becomes a domain of freedom and liberty, not autocracy and oppression. If we do not lead, we will weaken our partnerships. I want countries to embark with us into the cosmos, rather than team with China as a last resort.    The Obama Administration has already told the Europeans that they are not interested in their Moon Village proposal. They've tried to walk away from their commitments to the Germans on SOFIA and actually abandoned ExoMars. International partners have memories. They also have options.    China is building a resume of accomplishments that positions them as a viable alternative. Given their recent provocative actions in the South China Sea, and the longstanding oppression of their own people, we should all be wary of perpetuating conditions that push other nations to partner with China.    Furthermore, we should ensure that any U.S. cooperation with China in space is mutually beneficial, appreciates the risk of technology exploitation, and fits into a larger strategic perspective that recognizes Chinese provocation.    Aside from recent tensions in the South China Sea, China also threatens our nation's cyber security. Couple that with their irresponsible antisatellite tests, one is hard-pressed to find a reason to reward their behavior with increased cooperation. We may not be in a space race with China. We may not even be competing with China in space, but the strategic choices we make clearly impact China's space capabilities, something that we should all pay attention to given that China's civil space activities are inseparable from their military.    I look forward to our witnesses' testimony today, and I thank them for appearing.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Good morning, and welcome to our distinguished witnesses today. I want to thank Chairman Babin for calling this hearing.    You know, on October 4, 1957, 59 years ago next week, the Soviet Union stunned the world when it launched Sputnik I into outer space. That launch, marking the first time a manmade satellite was placed into Earth orbit, caught Americans by surprise and indeed sparked fears that the Soviet Union might also be capable of sending missiles with nuclear weapons from Russia to the United States.    Not long after, Congress passed legislation establishing the National Aeronautics and Space Administration (NASA). The agency's budding space program became important in America's efforts to demonstrate U.S. preeminence and technological prowess over the Soviet Union.    To that end, President John F. Kennedy stood before Congress on May 25, 1961 proposing that ``this nation should commit itself to achieving the goal before this decade is out of landing a man on the Moon and returning him safely to the Earth.''    Following a series of interim achievements that demonstrated NASA's ability to dock and perform extravehicular activities in space, the space race ended with the successful July 20, 1969, Apollo 11 landing of the first humans on the Moon. How different would today's world be if NASA had not responded to President Kennedy's challenge?    And now, almost 50 years since that historic event, some are asking if we are again in a space race, but this time with China. Two weeks ago, China successfully placed in orbit its Tiangong-2 experimental orbiting space lab, and that accomplishment comes on the heels of China's landing a robotic rover on the Moon, with plans announced to do the same on Mars.    So should we be concerned that China may be closing the gap in spaceflight capabilities? Well, today's panel is well qualified to address this question. In particular, I look forward to hearing about China's pace of progress in exploring space and how our track record fares in comparison.    I'd also like to know if the recent success of China's space program is due to its ability to stay on course. In addition, I'd like to get the witnesses' views on what they believe the goals and objectives of the Chinese space program are and what impacts other domestic priorities have on the conduct of their space activities. So I look forward to hearing the panel's views on whether the U.S. should seek greater cooperation with other space-faring nations, including China, and what challenges we face if we choose to do so.    And just in closing, and in reference to the Chairman's statement, you know, I think that there's a lot of blame that can be passed along Pennsylvania Avenue from one end to the next for the uncertainty, for the contrary priorities and confusing priorities across Republican and Democratic Presidents and Members of Congress, and in my very short eight years on this Subcommittee and on this Committee, I've witnessed that conflict in priorities, and I think that as Democrats and Republicans here in the House and the Senate that we would do our nation well and our nation's space program well for the future to make sure that we set down priorities that put us all on the same page when it comes to our priorities for space exploration, engage our international partners, and commit the resources across Presidents, Republicans and Democrats that it's going to take to get the job done.    And so I look forward to hearing from our panel today about those and other priorities, and with that, I yield the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman, and thanks to our witnesses for being here today as well.    Just this month, China launched its second experimental space station. While it's just a single module and is smaller than the International Space Station, it signifies continued Chinese progress and persistence.    The Soviets flew their first large, modular space station, Mir, 3-1/2 decades after the first cosmonaut went to space. China plans to have their own slightly smaller equivalent to the Mir space station in operation by the mid-2020s. This is roughly two decades after China launched its first astronaut into orbit.    Meanwhile, the Obama Administration's cuts to exploration and disruption of exploration planning has eliminated our opportunities to return to the Moon, and the Administration has no real plan for landing people on Mars. China continues to make progress. We cannot resign ourselves to the remembrance of past achievements. It is time for the United States to reassert its leadership.    For over 50 years, the United States has been committed to the peaceful use and exploration of outer space. Our philosophical principles of freedom, the rule of law, and transparency are evident in the actions we take. The United States shares scientific data and findings, promotes international cooperation, and maintains international peace and security in outer space. The world has benefited from U.S. space leadership.    The success of China's space program will be different. China does not hold the same values of our society. Unlike the United States, China does not have distinct military and civilian space programs. The Chinese military is functionally in charge of all space activities, with the Chinese National Space Agency responsible for international affairs and intergovernmental agreements. China already has demonstrated a strong disregard for interests of other countries in outer space through its antisatellite tests. Here on Earth, illegal incursions into the South China Sea represent a blatant disregard for the international rule of law. Will their disregard of international law continue to extend into outer space?    When China launched its first person into space in 2003, it caught the world's attention. Over the years, our focus has waned and now China's accomplishments in space have become commonplace. We cannot ignore Chinese achievements and become complacent.    Just yesterday, the New York Times featured a large article on the largest single dish radio telescope, which is being built in China. China is making steady progress in all fields of exploration, including astronomy.    If the United States fails to reassert its leadership, China's rise may undermine U.S. plans to transfer low-Earth orbit habitation and human spaceflight from a governmental activity to a sustainable economic activity undertaken by the private sector. China stands to fill another void left by this Administration's disinterest in maintaining leadership in exploration.    By abandoning plans to return to the Moon, the administration invited the rise of China as a leader in space. By reallocating funding from exploration to Earth science, the administration has put our leadership in space exploration at risk. Our allies stand ready to partner in an ambitious exploration program. Unfortunately, the current administration won't allow NASA to propose one.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -79,24 +100,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Shea</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shea. Well, thank you, Chairman Babin, Ranking Member Edwards, Chairman Smith, and the members of the Subcommittee for the opportunity to testify before you today.    I have to note these are my own personal views and not necessarily the judgments of the U.S.-China Commission though I draw heavily from the Commission's work.    Examining China's space program has never been more crucial. Over the next six years, China is poised to take major steps that will draw significant attention to its efforts in space and potentially set the stage for a larger leadership role.    Specifically, China plans to collect soil samples from the Moon and return them to Earth in 2017, send an unmanned spacecraft to land on the Moon's dark side before 2020, send a Rover to Mars in 2020, and complete a space station in 2022.    In this testimony, I want to briefly address three main points: the key characteristics of China's space program, the contributions it provides in economical, political and diplomatic terms, and the implications it presents for future U.S. leadership in space. The military aspects of China's space program are covered more fully in the Commission's report of last year.    China's climb to its current status is one of the world's top space powers as the result of decades of leadership attention and steady investment. It has also involved a significant effort to buy or otherwise obtain technologies from foreign sources, especially the United States. In particular, China's large-scale state-sponsored theft of intellectual property through cyber espionage has no doubt helped fill knowledge gaps in its space R&amp;D.    China's space initiatives have progressed as a much slower, more deliberate and more methodical pace than those of the United States. For example, the United States achieved manned spaceflight for the first time in 1961 and the Moon landing in 1969, whereas China conducted its first manned spaceflight in 2003 and may not plan to land on the Moon until the 2030s, as revealed just this year. However, China is also pursuing multiple large-scale efforts at the same time rather than the more sequential approach taken by the United States, making it difficult to compare the two directly.    As pointed out by Chairman Smith, China does not have distinctly separate military and civilian space programs as the United States does. Rather, China's military controls the majority of the country's space assets and operations and state-owned defense conglomerates are the key actors in the commercial space sector. Thus, even apparently civilian projects such as space exploration can directly support the development of PLA, space, counter-space, and conventional capabilities. Beijing also provides little transparency regarding its intentions in space, for example, does not release detailed budget information on its space activities.    China's space program has furthered its leaders strategic ambitions. China's advancements in space, specifically its plans for a space station, lunar exploration, and Mars exploration provide domestic legitimacy and international prestige.    China's global commercial efforts in areas such as space launch services, satellite exports and satellite application technologies provide revenues and are expected by policymakers to spark spin-off developments in key economic sectors. Both space exploration and commercial activities open the door to China's participation in key international and bilateral initiatives, which I list in my written testimony.    China has sought to work with advanced space powers where possible to improve its capabilities, most notably the European Space Agency. China has seen its greatest success in marking commercial space services to developing countries, which are less likely to demand advanced technologies subject to U.S. ITAR restrictions.    China's space program has economic implications for the United States in the areas of commercial satellite and spaced launch services, downstream satellite navigation industries, and the potential for European countries and their industries to pursue non-U.S. technologies in order to reach the Chinese market. The full deployment of China's BeiDou satellite navigation system plans to provide global service by 2020, and the introduction of policies to promote its adoption in downstream industries may affect U.S. firms and these industries in the future.    On the political side, China's activities have implications for U.S. leadership and international cooperation efforts in space. If the United States has a Mars program but no space station and no lunar program in the near future while China has all three, China will be able to dictate participation in manned spaceflight as well as in scientific projects involving its space station. China has already signed agreements with the U.N. Office for Outer Space Affairs and the Russian and European space agencies regarding space station cooperation.    Although the United States is prepared to maintain its leadership in the space domain, China's highly controlled, methodical and comprehensive approach will open up opportunities for Beijing in the near term.    Despite the fact that China's accomplishments and investments in space have been far outpaced by our own, it will likely appear over the next six years that China is reaching major milestones and gaining ground. Meanwhile, the United States will be focused on longer-term exploration projects and observers will be well aware of the planned deorbiting of the International Space Station in 2024. This underscores how important it is for the United States to see through its long-term space exploration projects so this apparent disparity does not continue.    Thank you very much, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Shea.    I now recognize Mr. Stokes for five minutes to present his testimony. Mr. Stokes.</t>
   </si>
   <si>
+    <t>Stokes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stokes. Thank you. Mr. Chairman, Members of the Subcommittee. It's an honor and privilege to be able to have this opportunity to come and present before you today.    I'd like to make three points. The testimony should be able to speak for itself, and I can provide more details in the question-and-answer session. But I'd like to make three points to sort of emphasize various aspects of developments in China's space capabilities.    Number one, it's important to draw upon and augment what Mr. Shea mentioned about the difficulty between distinguishing military capabilities and civilian capabilities in China's space program, and this is part of a conscious policy referred to these days as military-civilian fusion--MCF for short. There is a long history behind military-civilian fusion dating back perhaps to the 1980s. Dong Zhou Ping, he had a 16-character slogan in which military programs or military projects or civilian projects and investments were intended to support each other with the military taking priority. The term previously was referred to in English as integration so the military integration, not military-civilian fusion, presumably to imply a greater degree of cooperation between the two sectors.    It is difficult to distinguish military and civilian programs but one can at least make an attempt to identify an end user or sponsor, in other words, who is actually managing the program. There are some aspects of China's space program that are managed by civilian organizations, and then there are some military end users. This was not always the case. When China embarked upon their space program in the beginning, there was very much of even more of a blurring. Over the last decade or 10, 15 years, there's been an increasing effort with PLA developing dedicated military systems, particularly, for example, remote sensing programs, and there also of course are other organizations, civilian organizations, that have their own systems, say, for example, there's an ocean organization under the state council that's important. But, you know, part of this has to do with both spin-on and spin-off capabilities in space.    The second point I'd like to make is related to technological progresses being made, particularly in the research, development and acquisition system. This is probably where China has made the most significant achievements, not necessarily in the technology itself but in the ability to mobilize resources and to organize in a very progressive and reasonable fashion in terms of increasing capabilities.    As mentioned in the written testimony, there is sort of a stage-phase pathway to fielding systems ranging from preliminary research or basic research to concept development, to engineering, research and development, then all the way up to testing and then fielding. It's important to understand where each individual program is in the cycle to get a feel for how far along that they are. There's a pretty wide body of information that outlines the various programs all the way from satellites, remote sensing satellites, communication satellites, guidance navigation satellites, significant increasingly diverse set of launch vehicles that are being fielded to include starting last year a solid-fuel launch vehicle, one of their first to be deployed and operationalized. There's significant investments in the counter-space systems to include the ability to be able to track and surveil space assets, and of course, the manned space program. So there are significant capabilities that are being developed in this field.    There are three goals, to put it simply, in my view. One of the key goals of course is political, political legitimacy. One has to remember that ultimately the People's Republic of China is a one-party system, that the Chinese Communist Party seeks legitimacy in various ways and which the space program is certainly one of these. There are military goals, and again, there's a wide body of literature that outlines these goals and capabilities. And then there are economic goals as well.    And then finally, directly addressing the issue of the Space Race. It's difficult to define exactly what the Space Race is, and it's not even clear if we're even competing or we even view space as an area of competition with the People's Republic of China. And there may be different playing fields. For example, the political playing field, I think, is significant. But regardless from a technology perspective, Beijing and authorities in Beijing are closing the technology gap. It's my view that the United States technologically is likely to maintain advantage, bearing in mind that I'm not an expert on U.S. space systems, given the United States makes proper investments in our space capabilities.    In terms of future and goals in terms of what the United States should do in order to understand this better, in terms of defining what the competition would be, there's technological aspects. There's the ability to be able to apply capabilities that are being deployed, and then some comparison of the ability to mobilize resources in terms of personnel, budgets, and then organization.    And with that, I will save the rest of my comments for the question-and-answer session.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Stokes.    Now I recognize Mr. Cheng for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Cheng</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cheng. Chairman Babin, Ranking Member Edwards, Chairman Smith, distinguished Members of the Committee, my name is Dean Cheng. I'm the Senior Research Fellow for Chinese Political and Security Affairs at the Heritage Foundation but I'd like to emphasize that my comments today are my own.    Directly to the point of whether or not there is a space race underway between the United States and China, I would like to suggest that there is not a space race per se but rather that there is a race between the United States and China on multiple different aspects and fronts, political, diplomatic, security, all of which have a space component, and that is the Chinese perspective because the Chinese view space as being an essential part of the larger effort to raise China's comprehensive national power.    Comprehensive national power is how the Chinese basically look at various countries including themselves, how they rank with each other how capable they are. It includes economic, diplomatic, political, cultural, science and technology, as well as military aspects, and from the Chinese perspective, space development contributes to every one of those elements of comprehensive national power.    With regards to the economy, space is seen as a pivotal technology. Because it is so dense, as the Chinese put it, in science and technology, in high technology, because it touches on such aspects as advanced materials, telecommunications, computing, and above all, systems engineering and systems integration. The Chinese see an advancing space capability that's almost like a locomotive that will pull along other parts of the Chinese economy. The space workforce in particular is seen as building expertise in key areas including systems integration, and we have seen key leaders in China's space industry transfer to areas such as the Commercial Aircraft Corporation, China's effort to build their own wide-bodied aircraft in the belief that their experience in the space sector can be translated into building Chinese challengers to Boeing and Airbus.    We also see this in terms of the Chinese folks on indigenous innovation. The perception is that China's ability to field a full-blown space program will spark innovation in other areas, other key subtechnologies.    In addition, of course, we also see the Chinese using space in terms of their political efforts, and this is both domestic and foreign relations. Space is a source of prestige, and prestige in this case supports both the legitimacy of the Chinese Communist Party but also the prestige of the People's Republic of China. For example, space achievements are often described as CCP achievements, and so China's space program, which grew out of the so-called two bombs, one satellite program, not only is a reflection of the relationship the Chinese view space with regards to key strategic weapons but also as a means again of promoting innovation. We also see the expectation that economic development through space will basically again help spark a revival of the Chinese economy, which right now seems to be slowing down.    With regards to foreign relations, again, we see space being used as a key diplomatic tool in both the bilateral and the multilateral aspects, bilaterally, in terms of sales of satellites to such states as Venezuela, Bolivia, Bangladesh, Pakistan, all of whom are key sources of raw materials that help power the Chinese economy, but also at the multilateral level, again such as the Asia-Pacific Space Cooperation Organization, which brings in Thailand, Malaysia, Mongolia. These are not major space powers per se, but they are key neighbors of the People's Republic of China, and they are using APSCO as a diplomatic tool.    Of course, it is implicit that the ability to maintain space-based surveillance and to put payloads into orbit obviously affects Taiwan, obviously affects Japan. I would also suggest to the Committee that when, not if, the Chinese are able to go to the Moon, first with a robotic lander on the far side, to think about how you will communicate with something on the far side of the Moon. In order to do that, it will require the establishment of a lunar satellite, satellites that will orbit the Moon. The implications for military and security aspects are self-evident. But also, the day that the Chinese land a human being on the Moon will be an enormous impact on the United States because how often have we heard we've gone to the Moon, why haven't we, you know, solved the common cold, why haven't we solved traffic problems in downtown DC. The reality is that the day the Chinese are able to do the same thing is the day that American uniqueness will be openly challenged and Chinese prestige will be put on the same level as that of the United States.    Thank you very much, members of the Committee, for your time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you very much, Mr. Cheng.    I now recognize Dr. Lewis for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Lewis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lewis. Mr. Chairman, I'd like to thank the Committee for the opportunity to testify on whether we're in a space race with China, but it's also useful to ask if we have the right strategy for space exploration in what's become a very different international environment.    A comparison of the U.S. and Chinese space programs suggests each reflects different goals rather than being a race. China's goals are political. Ours are scientific. There is a degree of parallelism between the U.S. and Chinese efforts but with the exception of human space exploration, the two programs are not really comparable.    In most areas, the United States remains unmatched in its space capabilities. Our unmanned space exploration program has no equal in its successes, but when we talk about a space race, we're talking about human spaceflight, the area of activity where the United States is weakest. The classic space race between the United States and the Soviets centered on human spaceflight and landing on the Moon. Each side tried to surpass the exploits of the other. I think it's now safe to say that the United States does not consider itself in a space race with China. The United States is focused on the manned exploration of Mars, and from a scientific perspective, going to Mars makes sense, but it doesn't make sense from a strategic perspective.    China does not talk about space races but there is an unavoidable comparison and competition with the United States. China's focus in space exploration is on human spaceflight and its leaders have a great interest in landing on the Moon.    In the United States and Soviet space race, the objectives are prestige and global influence. Having won the race, the United States largely lost interest in space. In contrast, China uses its space programs to gain political advantage. Its human space programs serve important domestic and foreign policy purposes.    Human spaceflight was a central part of the Cold War contest. The assumption was that the system that won the space race was superior. The competition between the U.S. and Chinese systems is not as clear-cut, but the rest of the world thinks we're in a competition with China and that space exploration is a part of this.    We should be clear that the Chinese space program largely duplicates U.S. and Soviet exploits from the 1970s and 1980s. What we do not want, however, is a tortoise-and-hare scenario where a slow-moving China passes the United States. American performance in space is an important element in how China will decide between confrontation or cooperation. We do not want a situation where China's leaders think, as a PLA general said last year, that the United States has ``great capability, no will.''    The future of space exploration requires the United States to make difficult choices. These choices will determine the outcome of any space race with China. A strong case can be made that the United States would be best served by human spaceflight programs that focus on incremental and achievable goals. We're in a very difficult international situation, and our space programs need to adjust to this.    I thank the Committee, and look forward to your questions.</t>
   </si>
   <si>
@@ -154,6 +187,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    Today's hearing is entitled ``Are We Losing the Space Race to China?'' and if I were to try to summarize your collective testimony, as I understand it, you're saying that the United States is not losing the race to China but China is gaining ground.    Mr. Shea, would that be a fair summary of your remarks?</t>
   </si>
   <si>
@@ -211,6 +250,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. Thank you all so much for coming.    Mr. Shea, you--in your written and oral testimony, you talked about--let me quote--``Beijing has heavily emphasized both commercial launch services and satellite exports as the space industry has developed, and both activities provide China's space industry with revenues, opportunities to measure the quality of its products and services against international competitors, and industrial development synergies, et cetera.''    One of the things this Committee has done in a very bipartisan way is try to be champions for the development of the commercial space industry here in the United States. Does China represent a real threat to our commercial space industry or is the competition good for our commercial space industry?</t>
   </si>
   <si>
@@ -256,6 +301,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Well, thank you, Mr. Chairman, and thank you to all of our panelists. I'm glad to see there's so much agreement on our panel today. There's been a lot of talk about the Space Race. I want to be clear, we've put men on the Moon. We got two rovers currently operating on the surface of Mars. We have explored the furthest reaches of the solar system. The Space Race is over, and we won.    The question is now how are we utilizing space and how are our near-peer competitors utilizing space, and the question is, are we ceding leadership to the Chinese. China is building a new station, as has already been identified. It has a Moon rover, recently launched the world's quantum communications satellite, as we just talked about, which does have very specific military implications, and it's expanding its BeiDou PNT system. Taking into account that there is no distinction between China's peaceful and military space programs, and these developments become very alarming quickly. Given their notorious lack of transparency, we do not know their true intentions with a space station nor do we even know what they are currently doing on the Moon.    Quantum technology is virtually unhackable and would give the Chinese a distinct advantage over any current military communications that we have as a nation. Utilizing BeiDou gives the Chinese an outlet for PNT that is separate from our own GPS. As they are developing their own GPS-type constellation, they are also developing and undertaking direct ascent antisatellite missile capabilities such as the 2007 direct ascent test that destroyed a LEO satellite. They are advancing spoofing and dazzling technologies and carrying out pernicious state-sponsored cyber espionage including a hack of the National Weather Service, which compelled us to shut down ground stations for two days in this country, deteriorating forecasts and putting my constituents in danger, and that threatened also the safety of millions of Americans including the constituents of everybody on this panel.    It is clear that China views space as the ultimate high ground and they are rapidly making moves to establish themselves in a position of strength while also improving their ability to deny us the use of space. Given the threat from China, we cannot afford to have the DOD doing extraneous activities not within its mission. As a point of departure, we must give the responsibility for providing space situational awareness for commercial and foreign entities to a civil agency, namely FAA's Office of Commercial Space Transportation. The Department of Transportation and the DOD concurred and endorsed this proposal in a recent report ordered by Section 110 of the Commercial Space bill recently enacted in 2015. I urge all of my colleagues to read the Section 110 report.    Next, we have a chance to pass a NASA authorization this year. That bill should direct NASA to utilize the Moon on our journey to Mars. Mr. Chairman, I think that's a great idea that you said and I think we need to go forward with that. Our allies want to go there as does a wide swath of our domestic commercial space industry. If we do not, our allies will work with China. They're either going to come into our orbit or they're going into their orbit--no pun intended.    Further, the bill should include the formation of a plan for a post-ISS world. We cannot afford a gap in LEO platforms similar to our gap in human transportation that currently exists. Including these policies will go a long way toward ensuring that we do not leave a power and leadership vacuum for China to fill.    Unfortunately, NASA under this Administration seems more focused on forcing partnership with China than in maintaining our leadership. Former Chairman Frank Wolf was a leader on this, and our country is grateful for his work. He first codified restrictions on cooperation with China in space.    On top of their belligerent space activity, China is run by a brutal regime that imprisons dissidents and persecutes minorities. State-sponsored cyber-crimes have robbed our companies of billions of dollars of intellectual property, doing untold damage to our economy. When does it stop is the question?    Mr. Chairman, any NASA bill should permanently codify the restrictions on cooperation with China while also discouraging others from partnering with the Chinese. We must treat China's actions in space for the threat that they are and ensure that we stay ahead of them technologically while preventing any vacuums in leadership that they might exploit.    Mr. Cheng, my question is for you. Given that China considers space security equivalent to maritime security, as you've kind of already talked about, is it reasonable to expect that China will behave in space similar to how it has behaved in the South China Sea?</t>
   </si>
   <si>
@@ -271,6 +322,12 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much.    I'd like each member to comment on this. What are the implications that China might match or surpass the U.S. civilian space capabilities in the near future or the distant future? And if they do, what are the key areas, what are the implications of that possibility, and also comment, the risks and benefits associated with NASA collaborating with China in space activities? So let me start with Mr. Shea, but I'd like each panel member to comment on that.</t>
   </si>
   <si>
@@ -298,6 +355,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    You know, competition is part of life. I think that America has led in this endeavor for many, many years. But there's so much that is going on right now with the technological advances that are happening today. There are so many things that we can do.    Back in the early 1960s, we were trying to go to the Moon because I do believe it was part of the competition. We also had many programs that were going on in the early 1960s like maybe the X-20 Dinosaur program that would've been the first space shuttle, and we decided not to do that. We decided to go to the Moon, and which is the goal that everyone looks to today.    But the point is, is we always have an awful lot of things that are happening, and I think the Chinese are now discovering that maybe if they put their goals on some finite situations, they might be able to beat us at certain things so we broke the sound barrier first, we were on the Moon first. We did all of these things first, and they might be able to do some of these finite goals and we might be looking at a hundred different goals.    So is that what we're kind of looking at today that competitively, look, we want to be on Mars first, we want to do this first, or are we looking at the expanse of space exploration and achieving some of these goals for a much bigger product, a much bigger program?</t>
   </si>
   <si>
@@ -322,6 +385,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chair, and gentlemen, thank you for your testimony today. I really do appreciate the panelists almost nodding as each of you is speaking because you all seem to be pretty much on the same page, and I think for the Members up here, very similar kind of view of this, and so I appreciate your testimony. I'm not often on the same page as the Heritage Foundation, I can tell you that, Mr. Cheng.    Mr. Bridenstine--so we agree, this panel on a lot of the space exploration components and this potential for a space race that we're not winning. We've been able to win in the past, and Mr. Bridenstine is pretty single-minded in talking about commercial space and the ability to expand that and the potential innovation that our private sector brings to, you know, exploring at least low-Earth orbit if not farther. There's a thing I'm pretty single-minded about, and Mr. Knight will start laughing at me, but 2033, okay, so we've had testimony by NASA engineers and other experts that 2033 orbits of Mars and Earth are in pretty good alignment to save a lot of space travel time, and that 17 years helps us put the building blocks in place to get to Mars, get our astronauts to Mars, so human spaceflight, Dr. Lewis, which is what you've been talking about, and one of those building blocks certainly could be going back to the Moon. Now, I'm not the engineer, I'm not the scientist, I don't know the best way to do it, but I do know as a Member of Congress, we need to have long-term mission that we as Members of Congress stand behind from Administration to Administration.    So Mr. Cheng, to your point, we've seen different Administrations change how we looked at our space program. So I think we do have a potential for a mission that is long-term in nature that will continue to add to our expertise and our leadership in space.    Here's my question. We do--we've had testimony by prior panels that one of the last places where we've had some decent diplomatic dialog between ourselves and the Russians has been with respect to our scientists and our space programs, continue to use their rockets to help us get to the Space Station. Is there the potential for us to have that kind of dialog with the Chinese scientists? Is it--you know, you've all used words like ``wary'' and ``skeptical.'' You've used ``cooperation'' and ``competition,'' ``hostile'' and ``pragmatic.'' Is there a way for us to work with their scientists to really start broadening cooperation, if you will? And I'll open it to anybody on the panel if you feel like answering.</t>
   </si>
   <si>
@@ -338,6 +407,12 @@
   </si>
   <si>
     <t>412675</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Warren</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Davidson. Thank you, Mr. Chairman.    Mr. Cheng, in your comments you mentioned a Chinese program called One Satellite, Two Bombs. What does that mean and what does it stem from?</t>
@@ -740,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,2501 +845,2944 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>57</v>
+      </c>
       <c r="H44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>57</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>78</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G68" t="s">
+        <v>102</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G70" t="s">
+        <v>102</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G74" t="s">
+        <v>102</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G76" t="s">
+        <v>113</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>113</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G86" t="s">
+        <v>123</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>131</v>
+      </c>
       <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>131</v>
+      </c>
       <c r="H92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G95" t="s">
+        <v>131</v>
+      </c>
       <c r="H95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G97" t="s">
+        <v>95</v>
+      </c>
       <c r="H97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G98" t="s">
+        <v>131</v>
+      </c>
       <c r="H98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
       <c r="H100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>101</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G102" t="s">
+        <v>123</v>
+      </c>
       <c r="H102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>101</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s">
+        <v>123</v>
+      </c>
       <c r="H104" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Babin</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Edwards</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -187,6 +199,9 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Brooks</t>
   </si>
   <si>
@@ -248,6 +263,9 @@
   </si>
   <si>
     <t>412657</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Beyer</t>
@@ -815,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,2941 +866,3176 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
         <v>31</v>
       </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
         <v>31</v>
       </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
         <v>31</v>
       </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
         <v>31</v>
       </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
         <v>31</v>
       </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G70" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
         <v>31</v>
       </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I81" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
         <v>31</v>
       </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G86" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" t="s">
         <v>31</v>
       </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>35</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" t="s">
         <v>31</v>
       </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>35</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H97" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G104" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I104" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
